--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.10143733333333</v>
+        <v>1.939846666666667</v>
       </c>
       <c r="H2">
-        <v>60.304312</v>
+        <v>5.819540000000001</v>
       </c>
       <c r="I2">
-        <v>0.8016682866829874</v>
+        <v>0.2909707586772264</v>
       </c>
       <c r="J2">
-        <v>0.8016682866829873</v>
+        <v>0.2909707586772264</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,33 +555,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>71.97801199999999</v>
+        <v>0.09428199999999999</v>
       </c>
       <c r="N2">
-        <v>215.934036</v>
+        <v>0.282846</v>
       </c>
       <c r="O2">
-        <v>0.9574677988575694</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9574677988575693</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1446.861497595914</v>
+        <v>0.1828926234266667</v>
       </c>
       <c r="R2">
-        <v>13021.75347836323</v>
+        <v>1.64603361084</v>
       </c>
       <c r="S2">
-        <v>0.7675715698642789</v>
+        <v>0.2909707586772264</v>
       </c>
       <c r="T2">
-        <v>0.7675715698642787</v>
+        <v>0.2909707586772264</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.10143733333333</v>
+        <v>1.98464</v>
       </c>
       <c r="H3">
-        <v>60.304312</v>
+        <v>5.95392</v>
       </c>
       <c r="I3">
-        <v>0.8016682866829874</v>
+        <v>0.2976896145577677</v>
       </c>
       <c r="J3">
-        <v>0.8016682866829873</v>
+        <v>0.2976896145577677</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.197374666666666</v>
+        <v>0.09428199999999999</v>
       </c>
       <c r="N3">
-        <v>9.592123999999998</v>
+        <v>0.282846</v>
       </c>
       <c r="O3">
-        <v>0.04253220114243066</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.04253220114243065</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>64.27182649318755</v>
+        <v>0.18711582848</v>
       </c>
       <c r="R3">
-        <v>578.4464384386879</v>
+        <v>1.68404245632</v>
       </c>
       <c r="S3">
-        <v>0.03409671681870859</v>
+        <v>0.2976896145577677</v>
       </c>
       <c r="T3">
-        <v>0.03409671681870857</v>
+        <v>0.2976896145577677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.98464</v>
+        <v>2.027526666666667</v>
       </c>
       <c r="H4">
-        <v>5.95392</v>
+        <v>6.08258</v>
       </c>
       <c r="I4">
-        <v>0.07914971064502936</v>
+        <v>0.3041224765728775</v>
       </c>
       <c r="J4">
-        <v>0.07914971064502936</v>
+        <v>0.3041224765728775</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>71.97801199999999</v>
+        <v>0.09428199999999999</v>
       </c>
       <c r="N4">
-        <v>215.934036</v>
+        <v>0.282846</v>
       </c>
       <c r="O4">
-        <v>0.9574677988575694</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9574677988575693</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>142.85044173568</v>
+        <v>0.1911592691866666</v>
       </c>
       <c r="R4">
-        <v>1285.65397562112</v>
+        <v>1.72043342268</v>
       </c>
       <c r="S4">
-        <v>0.0757832992315098</v>
+        <v>0.3041224765728775</v>
       </c>
       <c r="T4">
-        <v>0.07578329923150978</v>
+        <v>0.3041224765728775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,294 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.98464</v>
+        <v>0.7147963333333333</v>
       </c>
       <c r="H5">
-        <v>5.95392</v>
+        <v>2.144389</v>
       </c>
       <c r="I5">
-        <v>0.07914971064502936</v>
+        <v>0.1072171501921284</v>
       </c>
       <c r="J5">
-        <v>0.07914971064502936</v>
+        <v>0.1072171501921284</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.197374666666666</v>
+        <v>0.09428199999999999</v>
       </c>
       <c r="N5">
-        <v>9.592123999999998</v>
+        <v>0.282846</v>
       </c>
       <c r="O5">
-        <v>0.04253220114243066</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.04253220114243065</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>6.345637658453333</v>
+        <v>0.06739242789933332</v>
       </c>
       <c r="R5">
-        <v>57.11073892607999</v>
+        <v>0.606531851094</v>
       </c>
       <c r="S5">
-        <v>0.003366411413519574</v>
+        <v>0.1072171501921284</v>
       </c>
       <c r="T5">
-        <v>0.003366411413519573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.788646333333333</v>
-      </c>
-      <c r="H6">
-        <v>5.365939</v>
-      </c>
-      <c r="I6">
-        <v>0.07133325929620792</v>
-      </c>
-      <c r="J6">
-        <v>0.0713332592962079</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>71.97801199999999</v>
-      </c>
-      <c r="N6">
-        <v>215.934036</v>
-      </c>
-      <c r="O6">
-        <v>0.9574677988575694</v>
-      </c>
-      <c r="P6">
-        <v>0.9574677988575693</v>
-      </c>
-      <c r="Q6">
-        <v>128.7432072444226</v>
-      </c>
-      <c r="R6">
-        <v>1158.688865199804</v>
-      </c>
-      <c r="S6">
-        <v>0.06829929876367644</v>
-      </c>
-      <c r="T6">
-        <v>0.06829929876367642</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.788646333333333</v>
-      </c>
-      <c r="H7">
-        <v>5.365939</v>
-      </c>
-      <c r="I7">
-        <v>0.07133325929620792</v>
-      </c>
-      <c r="J7">
-        <v>0.0713332592962079</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>3.197374666666666</v>
-      </c>
-      <c r="N7">
-        <v>9.592123999999998</v>
-      </c>
-      <c r="O7">
-        <v>0.04253220114243066</v>
-      </c>
-      <c r="P7">
-        <v>0.04253220114243065</v>
-      </c>
-      <c r="Q7">
-        <v>5.718972473826222</v>
-      </c>
-      <c r="R7">
-        <v>51.47075226443599</v>
-      </c>
-      <c r="S7">
-        <v>0.003033960532531477</v>
-      </c>
-      <c r="T7">
-        <v>0.003033960532531476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.199783666666667</v>
-      </c>
-      <c r="H8">
-        <v>3.599351</v>
-      </c>
-      <c r="I8">
-        <v>0.04784874337577548</v>
-      </c>
-      <c r="J8">
-        <v>0.04784874337577547</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>71.97801199999999</v>
-      </c>
-      <c r="N8">
-        <v>215.934036</v>
-      </c>
-      <c r="O8">
-        <v>0.9574677988575694</v>
-      </c>
-      <c r="P8">
-        <v>0.9574677988575693</v>
-      </c>
-      <c r="Q8">
-        <v>86.35804315673734</v>
-      </c>
-      <c r="R8">
-        <v>777.2223884106361</v>
-      </c>
-      <c r="S8">
-        <v>0.04581363099810445</v>
-      </c>
-      <c r="T8">
-        <v>0.04581363099810444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.199783666666667</v>
-      </c>
-      <c r="H9">
-        <v>3.599351</v>
-      </c>
-      <c r="I9">
-        <v>0.04784874337577548</v>
-      </c>
-      <c r="J9">
-        <v>0.04784874337577547</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>3.197374666666666</v>
-      </c>
-      <c r="N9">
-        <v>9.592123999999998</v>
-      </c>
-      <c r="O9">
-        <v>0.04253220114243066</v>
-      </c>
-      <c r="P9">
-        <v>0.04253220114243065</v>
-      </c>
-      <c r="Q9">
-        <v>3.836157901280445</v>
-      </c>
-      <c r="R9">
-        <v>34.525421111524</v>
-      </c>
-      <c r="S9">
-        <v>0.002035112377671029</v>
-      </c>
-      <c r="T9">
-        <v>0.002035112377671029</v>
+        <v>0.1072171501921284</v>
       </c>
     </row>
   </sheetData>
